--- a/포카리사운드 영상_url.xlsx
+++ b/포카리사운드 영상_url.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b26abe2dd93d011e/문서/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hongeunlee/Documents/GitHub/pocari_sound/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="122" documentId="8_{8B5EDD44-C9C1-4445-B7C5-AD2F81E319A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{500B6BC1-AF8C-4D06-A11A-F2058FF7623A}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAAE71BC-03C6-6F45-B680-F955832DF5DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{74080E5A-2F44-4706-AD70-86B1AB8CCEEB}"/>
+    <workbookView xWindow="-25760" yWindow="500" windowWidth="25760" windowHeight="18420" xr2:uid="{74080E5A-2F44-4706-AD70-86B1AB8CCEEB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,28 +18,17 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$E$2</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="238">
   <si>
     <t>기업홍보</t>
   </si>
@@ -146,12 +135,6 @@
     <t xml:space="preserve">Js컴퍼니 </t>
   </si>
   <si>
-    <t>3페이지 6,7번</t>
-  </si>
-  <si>
-    <t xml:space="preserve">삼성전기 어스아워, 쌤클라스 1,2교시 </t>
-  </si>
-  <si>
     <t xml:space="preserve">Sdi 아무거나 쓰지말어 </t>
   </si>
   <si>
@@ -341,18 +324,6 @@
     <t>4페이지 8번</t>
   </si>
   <si>
-    <t xml:space="preserve">모플렉스 1,2 </t>
-  </si>
-  <si>
-    <t>5페이지 4,5번</t>
-  </si>
-  <si>
-    <t xml:space="preserve">바비톡 </t>
-  </si>
-  <si>
-    <t>5페이지 11번</t>
-  </si>
-  <si>
     <t xml:space="preserve">클룸 </t>
   </si>
   <si>
@@ -416,30 +387,12 @@
     <t>4페이지 3번</t>
   </si>
   <si>
-    <t xml:space="preserve">Sdi 소중한것 </t>
-  </si>
-  <si>
-    <t>4페이지 4번</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sdi 천안 가을 </t>
-  </si>
-  <si>
-    <t>4페이지 9번</t>
-  </si>
-  <si>
     <t xml:space="preserve">삼성물산 선배들에게 </t>
   </si>
   <si>
     <t>4페이지 10번</t>
   </si>
   <si>
-    <t xml:space="preserve">한샘 </t>
-  </si>
-  <si>
-    <t>4페이지 13번</t>
-  </si>
-  <si>
     <t xml:space="preserve">바이킹스워프 </t>
   </si>
   <si>
@@ -610,6 +563,231 @@
   <si>
     <t>1페이지 3</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/5pJn2BVDWVs?si=iYTkBr4cFUzWaDUI" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/_hjqeHwezeU?si=FgH7aDRzFrVJhB0c" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/3r4PZaj09B8?si=pi2CSCbJueBkRTSy" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/LfLMngsTvL8?si=Tj2HbvFkklt9iCqS" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/RpAocaATS8g?si=IW8v-y7RFqCKLLB3" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>3페이지 6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3페이지 7번</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/iDOcix6lZbY?si=H1z8JRbRc6CZzpKm" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/0J7fPqC3Nao?si=-39XJFRsAorOy22w" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>삼성전기 어스아워</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">삼성전기 쌤클라스 2교시 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/eTq7MlJxVLg?si=sJbsrOpUWxxPRms-" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">삼성전기 쌤클라스 1교시 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/dxSyGyU8dRw?si=KrCyzU8Eud-EgKM1" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/lFwD3FylKFk?si=oUxpOBcwaP47InoR" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/folzM0NhvgA?si=T16ChRAnt2MSzWAC" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/7TfIqcD5RrQ?si=J03l3LqtNjYSa2OP" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/Ik-jbbKHtS4?si=GU2I_55VHiXa-HVy" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/GLMUpVZLAGs?si=HOkrSLxyP8WzWTGz" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/rR_AgyDBrEw?si=ZvUSB0OK0H88Ix30" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/N2nONjh0_Gs?si=kX-UbSIYUSmSkwJi" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/UbU0pAi6XXc?si=408lrORBhSbfrQHL" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/heN2Sf-zZT4?si=6-Zo53MF6X3P61T3" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/blzb94z4XgI?si=eX3j22aZwDvS0vgx" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/InzXerrbaeE?si=TSrEJpEJSOGk7Y_p" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/x44nQ3uvUPc?si=fXoQfvXp5PiorDRQ" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/tIZgu8WW_1I?si=jjcqCGJFagRuksJ8" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/5_M4z3QsEUs?si=XN6QFtUxLqjXl2Ni" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/-eyH38XuNDs?si=BV4DcfpRSNK_lnGr" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/AxUMQB7HyHk?si=kbB_jugtXO2YkWva" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/LWd_Vqv4KWw?si=3ckv4PuklnLSArpV" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/rNlR5N_f3XQ?si=s9nJbOTiAGWAoTy_" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/dKgdPCE8JwM?si=6-SBk2_BtCC038KA" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/ya7YILR3Ayw?si=TzPk7jKTr1YnG3Og" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/Cn85gCxl8kg?si=8Kc5Z84Y_CM2zszN" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/iUBfIOoBy78?si=_najNMpKo4mCA2Vg" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/XAImT8vXV8Q?si=W7WkhN8IY0YYL5a8" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/9ctaXq0ULrk?si=lubjNQR080G_byso" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/QULVOgNes5g?si=uQuaCqK2IkHDiRG2" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/CrG-Apvzq5A?si=97PHy5LtOJbW26Ks" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/JaUR8U81ZS8?si=JlFlgHT3tjvjeeYU" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/I6XF4z_NjK4?si=CrIoRsCiUpxKEOKl" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/mSDLYz3JDg0?si=iO_99MRJGofQ_5_1" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/wt4xZTy3Wlg?si=42hngxWsBdH215by" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/QCh6U39jtzw?si=v9_vCi_-_RxfIl34" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/xPWMy0uap70?si=-8o_dVLQDdKkM620" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">모플렉스 2 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모플렉스 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5페이지 5번</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5페이지 4번</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/JMw2jHzzrfo?si=LhWK1zAZrupTSfi-" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/1M05cOu4ldY?si=IGm3B1Uado4svNDf" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/WWEUasAJlrs?si=LOugKJwLhHL9aIoH" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/PeR_b8KG848?si=yKhPPQEcY-0DgM83" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/JiHcZ6GajW0?si=CybMFTG6Cda85QfK" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/dWu-Jsk7fCU?si=bno-JANJTj_hrkl1" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/G2ToKhHdnOE?si=3lyG7MHW0TUQP3-P" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/87ubOdJtaQU?si=v2glFYuPgc-7g8D9" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/qJhaqYgyvQU?si=kp6oBre7LS3OfakZ" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/AJs7ma1fqFM?si=xM9sHTn9Xmfp84FO" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/J9oKmTzjmIE?si=G4acvZ99NvQMC9TT" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/nd2UHAyTW_Y?si=hfug6LivyjFDd7Ql" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/7KbtYJZgNZQ?si=aktvAuMZi0O9SdpC" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/WPGQeMCU-QY?si=mNqacgufzxbQLrOC" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/iPh6iQzmWsk?si=qpkTAzbhHcsB8oO7" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/9azzmOwDK9U?si=dyvTaYYi51BfV9uu" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/0drw7OG2CX4?si=DixK3asOXPseOMRL" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/dwjUs0a99DQ?si=ihVG2aHiuRpFqzMb" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/7thVQeXVKqw?si=Bv3D-_RlF3wlG_73" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
   </si>
 </sst>
 </file>
@@ -1041,18 +1219,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5671937B-8760-4B55-AB64-B08BB2598A56}">
-  <dimension ref="A1:E85"/>
+  <dimension ref="A1:E87"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="3.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.375" customWidth="1"/>
-    <col min="3" max="3" width="12.25" customWidth="1"/>
-    <col min="4" max="4" width="107.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.33203125" customWidth="1"/>
+    <col min="3" max="3" width="12.1640625" customWidth="1"/>
+    <col min="4" max="4" width="107.83203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1068,657 +1246,734 @@
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="E2" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="4">
-        <v>37</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>173</v>
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="4">
-        <v>38</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>160</v>
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>173</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="5">
-        <v>72</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>156</v>
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="E5" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="3">
+        <v>13</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="3">
+        <v>14</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="3">
+        <v>15</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="3">
+        <v>16</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="3">
+        <v>17</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="3">
         <v>18</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="B20" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="3">
         <v>19</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="5">
-        <v>59</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="5">
-        <v>60</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="E8" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="5">
+      <c r="B21" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="3">
+        <v>20</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="3">
+        <v>21</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="3">
+        <v>22</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="3">
+        <v>23</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="3">
+        <v>24</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="3">
+        <v>25</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="3">
+        <v>26</v>
+      </c>
+      <c r="B28" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="5">
+      <c r="C28" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="5">
-        <v>68</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="5">
-        <v>69</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="5">
-        <v>70</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="5">
-        <v>71</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="4">
-        <v>36</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="5">
-        <v>61</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="5">
-        <v>62</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="5">
-        <v>63</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="5">
-        <v>64</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="5">
-        <v>65</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="4">
-        <v>41</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="4">
-        <v>42</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="4">
-        <v>43</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="4">
-        <v>44</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="4">
-        <v>45</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="4">
-        <v>46</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="4">
-        <v>47</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="5">
-        <v>73</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>159</v>
+      <c r="D28" s="1" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="3">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>20</v>
+        <v>68</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>21</v>
+        <v>69</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>143</v>
+        <v>194</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="3">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>23</v>
+        <v>71</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="5">
+      <c r="A31" s="3">
+        <v>29</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="3">
+        <v>30</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="3">
+        <v>31</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="3">
+        <v>32</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="3">
+        <v>33</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="3">
+        <v>34</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="4">
+        <v>35</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C37" s="4"/>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="4">
+        <v>36</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="4">
+        <v>37</v>
+      </c>
+      <c r="B39" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="B31" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="5">
+      <c r="C39" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="4">
+        <v>38</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="4">
+        <v>39</v>
+      </c>
+      <c r="B41" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B32" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="3">
-        <v>5</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="3">
-        <v>6</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="4">
-        <v>39</v>
-      </c>
-      <c r="B35" s="4" t="s">
+      <c r="C41" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="4">
+        <v>40</v>
+      </c>
+      <c r="B42" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C42" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="4">
+        <v>41</v>
+      </c>
+      <c r="B43" s="4" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="4">
-        <v>40</v>
-      </c>
-      <c r="B36" s="4" t="s">
+      <c r="C43" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C36" s="4" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="3">
-        <v>7</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="3">
-        <v>16</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="4">
+      <c r="D43" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="4">
+        <v>42</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="4">
+        <v>43</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="4">
+        <v>44</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="4">
+        <v>45</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="4">
+        <v>46</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="4">
+        <v>47</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="4">
+        <v>48</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="4">
         <v>49</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B51" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="4">
+        <v>50</v>
+      </c>
+      <c r="B52" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="C52" s="4" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="3">
-        <v>8</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="4">
-        <v>50</v>
-      </c>
-      <c r="B41" s="4" t="s">
+      <c r="D52" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="4">
+        <v>51</v>
+      </c>
+      <c r="B53" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="C53" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="D41" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" s="3">
-        <v>9</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="3">
-        <v>10</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44" s="4">
+      <c r="D53" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="4">
         <v>52</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45" s="4">
-        <v>53</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46" s="3">
-        <v>11</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="A47" s="4">
-        <v>48</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="A48" s="5">
-        <v>76</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" s="5">
-        <v>77</v>
-      </c>
-      <c r="B49" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" s="3">
-        <v>12</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51" s="3">
-        <v>13</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" s="3">
-        <v>14</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53" s="3">
-        <v>15</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54" s="4">
-        <v>51</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>92</v>
@@ -1726,348 +1981,453 @@
       <c r="C54" s="4" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="A55" s="5">
+      <c r="D54" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="4">
+        <v>53</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="4">
+        <v>54</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="4"/>
+      <c r="B57" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="4">
+        <v>55</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="4">
+        <v>56</v>
+      </c>
+      <c r="B59" s="4"/>
+      <c r="C59" s="4"/>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="4">
+        <v>57</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="5">
+        <v>58</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C61" s="5"/>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="5">
+        <v>59</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="5">
+        <v>60</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E63" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="5">
+        <v>61</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="5">
+        <v>62</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="5">
+        <v>63</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="5">
+        <v>64</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="5">
+        <v>65</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="5">
+        <v>66</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="5">
+        <v>67</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="5">
+        <v>68</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" s="5">
+        <v>69</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" s="5">
+        <v>70</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" s="5">
+        <v>71</v>
+      </c>
+      <c r="B74" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" s="5">
+        <v>72</v>
+      </c>
+      <c r="B75" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E75" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" s="5">
+        <v>73</v>
+      </c>
+      <c r="B76" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" s="5">
+        <v>74</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" s="5">
+        <v>75</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" s="5">
+        <v>76</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" s="5">
+        <v>77</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="5">
+        <v>78</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" s="5">
+        <v>80</v>
+      </c>
+      <c r="B82" s="5"/>
+      <c r="C82" s="5"/>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" s="5">
+        <v>81</v>
+      </c>
+      <c r="B83" s="5"/>
+      <c r="C83" s="5"/>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" s="5">
         <v>82</v>
       </c>
-      <c r="B55" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="C55" s="5" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="A56" s="3">
-        <v>17</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="A57" s="5">
+      <c r="B84" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" s="5">
         <v>83</v>
       </c>
-      <c r="B57" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="C57" s="5" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="A58" s="3">
-        <v>18</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
-      <c r="A59" s="5">
+      <c r="B85" s="5"/>
+      <c r="C85" s="5"/>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" s="5">
         <v>84</v>
       </c>
-      <c r="B59" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="C59" s="5" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
-      <c r="A60" s="3">
-        <v>19</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
-      <c r="A61" s="3">
-        <v>20</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
-      <c r="A62" s="3">
-        <v>21</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
-      <c r="A63" s="5">
-        <v>78</v>
-      </c>
-      <c r="B63" s="5" t="s">
+      <c r="B86" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" s="5">
+        <v>85</v>
+      </c>
+      <c r="B87" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="C63" s="5" t="s">
+      <c r="C87" s="5" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="64" spans="1:3">
-      <c r="A64" s="5">
-        <v>80</v>
-      </c>
-      <c r="B64" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="C64" s="5" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
-      <c r="A65" s="3">
-        <v>22</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
-      <c r="A66" s="3">
-        <v>23</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
-      <c r="A67" s="3">
-        <v>24</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
-      <c r="A68" s="4">
-        <v>54</v>
-      </c>
-      <c r="B68" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
-      <c r="A69" s="5">
-        <v>81</v>
-      </c>
-      <c r="B69" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="C69" s="5" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
-      <c r="A70" s="3">
-        <v>25</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
-      <c r="A71" s="3">
-        <v>26</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
-      <c r="A72" s="4">
-        <v>56</v>
-      </c>
-      <c r="B72" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="C72" s="4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
-      <c r="A73" s="3">
-        <v>27</v>
-      </c>
-      <c r="B73" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C73" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
-      <c r="A74" s="5">
-        <v>85</v>
-      </c>
-      <c r="B74" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="C74" s="5" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
-      <c r="A75" s="3">
-        <v>28</v>
-      </c>
-      <c r="B75" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C75" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
-      <c r="A76" s="4">
-        <v>57</v>
-      </c>
-      <c r="B76" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="C76" s="4" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
-      <c r="A77" s="3">
-        <v>29</v>
-      </c>
-      <c r="B77" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C77" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
-      <c r="A78" s="3">
-        <v>30</v>
-      </c>
-      <c r="B78" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C78" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
-      <c r="A79" s="4">
-        <v>55</v>
-      </c>
-      <c r="B79" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="C79" s="4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
-      <c r="A80" s="3">
-        <v>31</v>
-      </c>
-      <c r="B80" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C80" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
-      <c r="A81" s="3">
-        <v>32</v>
-      </c>
-      <c r="B81" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C81" s="3" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
-      <c r="A82" s="3">
-        <v>33</v>
-      </c>
-      <c r="B82" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C82" s="3" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
-      <c r="A83" s="3">
-        <v>34</v>
-      </c>
-      <c r="B83" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C83" s="3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
-      <c r="A84" s="4">
-        <v>35</v>
-      </c>
-      <c r="B84" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="C84" s="4"/>
-    </row>
-    <row r="85" spans="1:3">
-      <c r="A85" s="5">
-        <v>58</v>
-      </c>
-      <c r="B85" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="C85" s="5"/>
+      <c r="D87" s="1" t="s">
+        <v>237</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A2:E2" xr:uid="{5671937B-8760-4B55-AB64-B08BB2598A56}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:E85">
-      <sortCondition ref="C2"/>
+      <sortCondition ref="A2:A85"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/포카리사운드 영상_url.xlsx
+++ b/포카리사운드 영상_url.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hongeunlee/Documents/GitHub/pocari_sound/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hongn\GitHub\pocari_sound\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAAE71BC-03C6-6F45-B680-F955832DF5DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C091729-0C29-46B0-A6DF-CB8A63E84D9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25760" yWindow="500" windowWidth="25760" windowHeight="18420" xr2:uid="{74080E5A-2F44-4706-AD70-86B1AB8CCEEB}"/>
+    <workbookView xWindow="38295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{74080E5A-2F44-4706-AD70-86B1AB8CCEEB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1221,16 +1221,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5671937B-8760-4B55-AB64-B08BB2598A56}">
   <dimension ref="A1:E87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="3.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.33203125" customWidth="1"/>
-    <col min="3" max="3" width="12.1640625" customWidth="1"/>
-    <col min="4" max="4" width="107.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.375" customWidth="1"/>
+    <col min="3" max="3" width="12.125" customWidth="1"/>
+    <col min="4" max="4" width="107.875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">

--- a/포카리사운드 영상_url.xlsx
+++ b/포카리사운드 영상_url.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hongn\GitHub\pocari_sound\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hongeunlee/Desktop/development/a3_second_homepage/pocari_sound/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C091729-0C29-46B0-A6DF-CB8A63E84D9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB925137-60C6-AC43-BC0F-123EA4A64218}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{74080E5A-2F44-4706-AD70-86B1AB8CCEEB}"/>
+    <workbookView xWindow="-25600" yWindow="500" windowWidth="25600" windowHeight="28300" xr2:uid="{74080E5A-2F44-4706-AD70-86B1AB8CCEEB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="239">
   <si>
     <t>기업홍보</t>
   </si>
@@ -72,722 +72,730 @@
     <t>삼성전기 너와나 우리 봄</t>
   </si>
   <si>
+    <t>Sdi primax72시간</t>
+  </si>
+  <si>
+    <t>포카리 사운드</t>
+  </si>
+  <si>
+    <t xml:space="preserve">벤틀리 </t>
+  </si>
+  <si>
+    <t>1페이지 2번</t>
+  </si>
+  <si>
+    <t xml:space="preserve">스몹 </t>
+  </si>
+  <si>
+    <t>2페이지 2번</t>
+  </si>
+  <si>
+    <t xml:space="preserve">한국콘진원 </t>
+  </si>
+  <si>
+    <t>2페이지 3번</t>
+  </si>
+  <si>
+    <t xml:space="preserve">삼성전기 역사관 투어 </t>
+  </si>
+  <si>
+    <t>2페이지 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">삼성전기 힐링스폿 </t>
+  </si>
+  <si>
+    <t>2페이지 7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">삼성전기 수자원편 </t>
+  </si>
+  <si>
+    <t>2페이지18번</t>
+  </si>
+  <si>
+    <t xml:space="preserve">삼성전기 대기정화편 </t>
+  </si>
+  <si>
+    <t>3페이지 1번</t>
+  </si>
+  <si>
+    <t xml:space="preserve">여가부 연말결산 </t>
+  </si>
+  <si>
+    <t>3페이지 5번</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Js컴퍼니 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sdi 아무거나 쓰지말어 </t>
+  </si>
+  <si>
+    <t>3페이지 12번</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lck </t>
+  </si>
+  <si>
+    <t>3페이지 14번</t>
+  </si>
+  <si>
+    <t xml:space="preserve">세라젬 </t>
+  </si>
+  <si>
+    <t>3페이지 16번</t>
+  </si>
+  <si>
+    <t xml:space="preserve">효성그룹 </t>
+  </si>
+  <si>
+    <t>4페이지 1번</t>
+  </si>
+  <si>
+    <t xml:space="preserve">네이버 부스트캠프 </t>
+  </si>
+  <si>
+    <t>4페이지 2번</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sdi 초대박 환상의패턴 </t>
+  </si>
+  <si>
+    <t>4페이지 5번</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sdi 배터리송 </t>
+  </si>
+  <si>
+    <t>4페이지 6번</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sdi 시인성에 문제있어 </t>
+  </si>
+  <si>
+    <t>4페이지 7번</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lg생활건강 알파트장 </t>
+  </si>
+  <si>
+    <t>4페이지 12번</t>
+  </si>
+  <si>
+    <t xml:space="preserve">검찰청 </t>
+  </si>
+  <si>
+    <t>4페이지 15번</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Koika </t>
+  </si>
+  <si>
+    <t>4피이지 16번</t>
+  </si>
+  <si>
+    <t xml:space="preserve">카카오페이 </t>
+  </si>
+  <si>
+    <t>4페이지 18번</t>
+  </si>
+  <si>
+    <t xml:space="preserve">롯데 채용영상 </t>
+  </si>
+  <si>
+    <t>5페이지 2번</t>
+  </si>
+  <si>
+    <t xml:space="preserve">한독모터스 </t>
+  </si>
+  <si>
+    <t>5페이지 3번</t>
+  </si>
+  <si>
+    <t xml:space="preserve">건축도시공간연구소 </t>
+  </si>
+  <si>
+    <t>5페이지 6번</t>
+  </si>
+  <si>
+    <t xml:space="preserve">문화재청 서오릉 3편 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">경기콘텐츠진흥원 </t>
+  </si>
+  <si>
+    <t>5페이지 10번</t>
+  </si>
+  <si>
+    <t xml:space="preserve">식품의약품안전처 </t>
+  </si>
+  <si>
+    <t>5페이지 12번</t>
+  </si>
+  <si>
+    <t xml:space="preserve">소방청 </t>
+  </si>
+  <si>
+    <t>5페이지 17번</t>
+  </si>
+  <si>
+    <t>1페이지1번</t>
+  </si>
+  <si>
+    <t xml:space="preserve">당근비즈니스 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">메이플스토리m </t>
+  </si>
+  <si>
+    <t>2페이지 8번</t>
+  </si>
+  <si>
+    <t>부적오운</t>
+  </si>
+  <si>
+    <t xml:space="preserve">쌍용건설 위대한 작품을 만들다 </t>
+  </si>
+  <si>
+    <t>2페이지 11번</t>
+  </si>
+  <si>
+    <t xml:space="preserve">골맵 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">아자르 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">아산 한신더휴 </t>
+  </si>
+  <si>
+    <t>2페이지 17번</t>
+  </si>
+  <si>
+    <t xml:space="preserve">라그나로크 </t>
+  </si>
+  <si>
+    <t>3페이지 2번</t>
+  </si>
+  <si>
+    <t xml:space="preserve">카트라이더 </t>
+  </si>
+  <si>
+    <t>3페이지 11번</t>
+  </si>
+  <si>
+    <t xml:space="preserve">쌍용 플래티넘 오시리아 </t>
+  </si>
+  <si>
+    <t>3페이지 13번</t>
+  </si>
+  <si>
+    <t xml:space="preserve">킹스맨 </t>
+  </si>
+  <si>
+    <t>3페이지15번</t>
+  </si>
+  <si>
+    <t xml:space="preserve">진주 피에르테 </t>
+  </si>
+  <si>
+    <t>3페이지 17번</t>
+  </si>
+  <si>
+    <t xml:space="preserve">한국투자증권 tdf </t>
+  </si>
+  <si>
+    <t>3페이지 18번</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nc소프트 페이지 </t>
+  </si>
+  <si>
+    <t>4페이지 8번</t>
+  </si>
+  <si>
+    <t xml:space="preserve">클룸 </t>
+  </si>
+  <si>
+    <t>5페이지 18번</t>
+  </si>
+  <si>
+    <t>1페이지 4</t>
+  </si>
+  <si>
+    <t>1페이지5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1페이지6 </t>
+  </si>
+  <si>
+    <t>1페이지7</t>
+  </si>
+  <si>
+    <t>1페이지8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">월드비젼 효기 강력해진 미션대공개 </t>
+  </si>
+  <si>
+    <t>1페이지9</t>
+  </si>
+  <si>
+    <t>1페이지10</t>
+  </si>
+  <si>
+    <t>1페이지11</t>
+  </si>
+  <si>
+    <t>1페이지12</t>
+  </si>
+  <si>
+    <t>1페이지13</t>
+  </si>
+  <si>
+    <t>1페이지14</t>
+  </si>
+  <si>
+    <t>1페이지15</t>
+  </si>
+  <si>
+    <t>2페이지 4</t>
+  </si>
+  <si>
+    <t>2페이지 5</t>
+  </si>
+  <si>
+    <t>3페이지 3</t>
+  </si>
+  <si>
+    <t>3페이지 4</t>
+  </si>
+  <si>
+    <t>4페이지 3번</t>
+  </si>
+  <si>
+    <t xml:space="preserve">삼성물산 선배들에게 </t>
+  </si>
+  <si>
+    <t>4페이지 10번</t>
+  </si>
+  <si>
+    <t xml:space="preserve">바이킹스워프 </t>
+  </si>
+  <si>
+    <t>4페이지 17번</t>
+  </si>
+  <si>
+    <t xml:space="preserve">롯데 음료학교 </t>
+  </si>
+  <si>
+    <t>5페이지 14번</t>
+  </si>
+  <si>
+    <t>제품홍보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vlog</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">url </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>썸네일 여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/EwZhZZb1Cv4?si=9kC_djCrPMpFf0Wf" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/AjFtAfcBY3k?si=zeJfhyRNCwsW77GL" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/-v3Mf7pJgvU?si=YEsYrX8ru6d7LEr3" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/ShY99ElUHPU?si=gTkLJGmZxLDHEZ6s" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/ngzBYN_2cyg?si=SLAudajhYGdyLiH7" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>영상없음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/i0SkeVt-Lt4?si=UCBkdzSTtTdb21TR" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/N0sCtAptYls?si=gAq5k50Pt-SG_v_C" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/Kh1-R63uiaI?si=9ZJmQy5bUMw8UMzr" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>1페이지 14번</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/ZfujeU6QhVo?si=65-HIr0-dhFYp7nV" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/oM1mucxwy48?si=IKRZ4S_7vjCGK6vq" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/I26u_Oyk_Zk?si=0wdaLiaHtfRyLjNV" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/h9HPM8J2eug?si=K3cIZ2y5UNTnuZla" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>1페이지 16번</t>
+  </si>
+  <si>
+    <t>Ebs 소름돋는 자화상해석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ebs 뜻밖의 조별과제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2페이지 1번</t>
+  </si>
+  <si>
+    <t>1페이지 15번</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2페이지 12번</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2페이지 13번</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2페이지 14번</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2페이지 15번</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2페이지 16번</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2페이지 9번</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3페이지 8,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3페이지 9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3페이지 10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5페이지 7번</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5페이지 8번</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5페이지 9번</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅇ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/ReDTE0WZ5Ig?si=Xj_Bm-7HSMJJ-vZE" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/EHVuvCX_AbE?si=-yZG5CbyT-leMAaX" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/b6c_jmT7olk?si=0jLZX_f7vojVoCvj" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/J9oKmTzjmIE?si=NdzByguNQ32-A0kT" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/1ICw32Gth64?si=63XW4Nwo6BMNCChM" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/c_8sbNOw89g?si=KlLS3bANygCZDd2Y" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>1페이지 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/5pJn2BVDWVs?si=iYTkBr4cFUzWaDUI" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/_hjqeHwezeU?si=FgH7aDRzFrVJhB0c" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/3r4PZaj09B8?si=pi2CSCbJueBkRTSy" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/LfLMngsTvL8?si=Tj2HbvFkklt9iCqS" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/RpAocaATS8g?si=IW8v-y7RFqCKLLB3" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>3페이지 6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3페이지 7번</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/iDOcix6lZbY?si=H1z8JRbRc6CZzpKm" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/0J7fPqC3Nao?si=-39XJFRsAorOy22w" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>삼성전기 어스아워</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">삼성전기 쌤클라스 2교시 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/eTq7MlJxVLg?si=sJbsrOpUWxxPRms-" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">삼성전기 쌤클라스 1교시 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/dxSyGyU8dRw?si=KrCyzU8Eud-EgKM1" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/lFwD3FylKFk?si=oUxpOBcwaP47InoR" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/folzM0NhvgA?si=T16ChRAnt2MSzWAC" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/7TfIqcD5RrQ?si=J03l3LqtNjYSa2OP" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/Ik-jbbKHtS4?si=GU2I_55VHiXa-HVy" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/GLMUpVZLAGs?si=HOkrSLxyP8WzWTGz" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/rR_AgyDBrEw?si=ZvUSB0OK0H88Ix30" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/N2nONjh0_Gs?si=kX-UbSIYUSmSkwJi" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/UbU0pAi6XXc?si=408lrORBhSbfrQHL" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/heN2Sf-zZT4?si=6-Zo53MF6X3P61T3" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/blzb94z4XgI?si=eX3j22aZwDvS0vgx" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/InzXerrbaeE?si=TSrEJpEJSOGk7Y_p" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/x44nQ3uvUPc?si=fXoQfvXp5PiorDRQ" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/tIZgu8WW_1I?si=jjcqCGJFagRuksJ8" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/5_M4z3QsEUs?si=XN6QFtUxLqjXl2Ni" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/-eyH38XuNDs?si=BV4DcfpRSNK_lnGr" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/AxUMQB7HyHk?si=kbB_jugtXO2YkWva" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/LWd_Vqv4KWw?si=3ckv4PuklnLSArpV" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/rNlR5N_f3XQ?si=s9nJbOTiAGWAoTy_" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/dKgdPCE8JwM?si=6-SBk2_BtCC038KA" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/ya7YILR3Ayw?si=TzPk7jKTr1YnG3Og" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/Cn85gCxl8kg?si=8Kc5Z84Y_CM2zszN" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/iUBfIOoBy78?si=_najNMpKo4mCA2Vg" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/XAImT8vXV8Q?si=W7WkhN8IY0YYL5a8" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/9ctaXq0ULrk?si=lubjNQR080G_byso" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/QULVOgNes5g?si=uQuaCqK2IkHDiRG2" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/CrG-Apvzq5A?si=97PHy5LtOJbW26Ks" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/JaUR8U81ZS8?si=JlFlgHT3tjvjeeYU" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/I6XF4z_NjK4?si=CrIoRsCiUpxKEOKl" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/mSDLYz3JDg0?si=iO_99MRJGofQ_5_1" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/wt4xZTy3Wlg?si=42hngxWsBdH215by" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/QCh6U39jtzw?si=v9_vCi_-_RxfIl34" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/xPWMy0uap70?si=-8o_dVLQDdKkM620" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">모플렉스 2 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모플렉스 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5페이지 5번</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5페이지 4번</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/JMw2jHzzrfo?si=LhWK1zAZrupTSfi-" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/1M05cOu4ldY?si=IGm3B1Uado4svNDf" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/WWEUasAJlrs?si=LOugKJwLhHL9aIoH" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/PeR_b8KG848?si=yKhPPQEcY-0DgM83" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/JiHcZ6GajW0?si=CybMFTG6Cda85QfK" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/dWu-Jsk7fCU?si=bno-JANJTj_hrkl1" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/G2ToKhHdnOE?si=3lyG7MHW0TUQP3-P" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/87ubOdJtaQU?si=v2glFYuPgc-7g8D9" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/qJhaqYgyvQU?si=kp6oBre7LS3OfakZ" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/AJs7ma1fqFM?si=xM9sHTn9Xmfp84FO" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/nd2UHAyTW_Y?si=hfug6LivyjFDd7Ql" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/7KbtYJZgNZQ?si=aktvAuMZi0O9SdpC" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/WPGQeMCU-QY?si=mNqacgufzxbQLrOC" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/iPh6iQzmWsk?si=qpkTAzbhHcsB8oO7" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/0drw7OG2CX4?si=DixK3asOXPseOMRL" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/dwjUs0a99DQ?si=ihVG2aHiuRpFqzMb" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/7thVQeXVKqw?si=Bv3D-_RlF3wlG_73" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/x1j0lUwCocc?si=ntGTYCO6ySaslK1j" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/9azzmOwDK9U?si=dyvTaYYi51BfV9uu" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>삼성전기 kpca 2022</t>
-  </si>
-  <si>
-    <t>Sdi primax72시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Sdi 범인은 이안에있어</t>
-  </si>
-  <si>
-    <t>포카리 사운드</t>
-  </si>
-  <si>
-    <t xml:space="preserve">벤틀리 </t>
-  </si>
-  <si>
-    <t>1페이지 2번</t>
-  </si>
-  <si>
-    <t xml:space="preserve">스몹 </t>
-  </si>
-  <si>
-    <t>2페이지 2번</t>
-  </si>
-  <si>
-    <t xml:space="preserve">한국콘진원 </t>
-  </si>
-  <si>
-    <t>2페이지 3번</t>
-  </si>
-  <si>
-    <t xml:space="preserve">삼성전기 역사관 투어 </t>
-  </si>
-  <si>
-    <t>2페이지 6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">삼성전기 힐링스폿 </t>
-  </si>
-  <si>
-    <t>2페이지 7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">삼성전기 수자원편 </t>
-  </si>
-  <si>
-    <t>2페이지18번</t>
-  </si>
-  <si>
-    <t xml:space="preserve">삼성전기 대기정화편 </t>
-  </si>
-  <si>
-    <t>3페이지 1번</t>
-  </si>
-  <si>
-    <t xml:space="preserve">여가부 연말결산 </t>
-  </si>
-  <si>
-    <t>3페이지 5번</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Js컴퍼니 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sdi 아무거나 쓰지말어 </t>
-  </si>
-  <si>
-    <t>3페이지 12번</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lck </t>
-  </si>
-  <si>
-    <t>3페이지 14번</t>
-  </si>
-  <si>
-    <t xml:space="preserve">세라젬 </t>
-  </si>
-  <si>
-    <t>3페이지 16번</t>
-  </si>
-  <si>
-    <t xml:space="preserve">효성그룹 </t>
-  </si>
-  <si>
-    <t>4페이지 1번</t>
-  </si>
-  <si>
-    <t xml:space="preserve">네이버 부스트캠프 </t>
-  </si>
-  <si>
-    <t>4페이지 2번</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sdi 초대박 환상의패턴 </t>
-  </si>
-  <si>
-    <t>4페이지 5번</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sdi 배터리송 </t>
-  </si>
-  <si>
-    <t>4페이지 6번</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sdi 시인성에 문제있어 </t>
-  </si>
-  <si>
-    <t>4페이지 7번</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lg생활건강 알파트장 </t>
-  </si>
-  <si>
-    <t>4페이지 12번</t>
-  </si>
-  <si>
-    <t xml:space="preserve">검찰청 </t>
-  </si>
-  <si>
-    <t>4페이지 15번</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Koika </t>
-  </si>
-  <si>
-    <t>4피이지 16번</t>
-  </si>
-  <si>
-    <t xml:space="preserve">카카오페이 </t>
-  </si>
-  <si>
-    <t>4페이지 18번</t>
-  </si>
-  <si>
-    <t xml:space="preserve">롯데 채용영상 </t>
-  </si>
-  <si>
-    <t>5페이지 2번</t>
-  </si>
-  <si>
-    <t xml:space="preserve">한독모터스 </t>
-  </si>
-  <si>
-    <t>5페이지 3번</t>
-  </si>
-  <si>
-    <t xml:space="preserve">건축도시공간연구소 </t>
-  </si>
-  <si>
-    <t>5페이지 6번</t>
-  </si>
-  <si>
-    <t xml:space="preserve">문화재청 서오릉 3편 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">경기콘텐츠진흥원 </t>
-  </si>
-  <si>
-    <t>5페이지 10번</t>
-  </si>
-  <si>
-    <t xml:space="preserve">식품의약품안전처 </t>
-  </si>
-  <si>
-    <t>5페이지 12번</t>
-  </si>
-  <si>
-    <t xml:space="preserve">소방청 </t>
-  </si>
-  <si>
-    <t>5페이지 17번</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Sdi 동년배톡 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">과몰입금지 </t>
-  </si>
-  <si>
-    <t>1페이지1번</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">당근비즈니스 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">메이플스토리m </t>
-  </si>
-  <si>
-    <t>2페이지 8번</t>
-  </si>
-  <si>
-    <t>부적오운</t>
-  </si>
-  <si>
-    <t xml:space="preserve">쌍용건설 위대한 작품을 만들다 </t>
-  </si>
-  <si>
-    <t>2페이지 11번</t>
-  </si>
-  <si>
-    <t xml:space="preserve">골맵 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">아자르 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">아산 한신더휴 </t>
-  </si>
-  <si>
-    <t>2페이지 17번</t>
-  </si>
-  <si>
-    <t xml:space="preserve">라그나로크 </t>
-  </si>
-  <si>
-    <t>3페이지 2번</t>
-  </si>
-  <si>
-    <t xml:space="preserve">카트라이더 </t>
-  </si>
-  <si>
-    <t>3페이지 11번</t>
-  </si>
-  <si>
-    <t xml:space="preserve">쌍용 플래티넘 오시리아 </t>
-  </si>
-  <si>
-    <t>3페이지 13번</t>
-  </si>
-  <si>
-    <t xml:space="preserve">킹스맨 </t>
-  </si>
-  <si>
-    <t>3페이지15번</t>
-  </si>
-  <si>
-    <t xml:space="preserve">진주 피에르테 </t>
-  </si>
-  <si>
-    <t>3페이지 17번</t>
-  </si>
-  <si>
-    <t xml:space="preserve">한국투자증권 tdf </t>
-  </si>
-  <si>
-    <t>3페이지 18번</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nc소프트 페이지 </t>
-  </si>
-  <si>
-    <t>4페이지 8번</t>
-  </si>
-  <si>
-    <t xml:space="preserve">클룸 </t>
-  </si>
-  <si>
-    <t>5페이지 18번</t>
-  </si>
-  <si>
-    <t>1페이지 4</t>
-  </si>
-  <si>
-    <t>1페이지5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1페이지6 </t>
-  </si>
-  <si>
-    <t>1페이지7</t>
-  </si>
-  <si>
-    <t>1페이지8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">월드비젼 효기 강력해진 미션대공개 </t>
-  </si>
-  <si>
-    <t>1페이지9</t>
-  </si>
-  <si>
-    <t>1페이지10</t>
-  </si>
-  <si>
-    <t>1페이지11</t>
-  </si>
-  <si>
-    <t>1페이지12</t>
-  </si>
-  <si>
-    <t>1페이지13</t>
-  </si>
-  <si>
-    <t>1페이지14</t>
-  </si>
-  <si>
-    <t>1페이지15</t>
-  </si>
-  <si>
-    <t>2페이지 4</t>
-  </si>
-  <si>
-    <t>2페이지 5</t>
-  </si>
-  <si>
-    <t>3페이지 3</t>
-  </si>
-  <si>
-    <t>3페이지 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sdi 동년배톡 </t>
-  </si>
-  <si>
-    <t>4페이지 3번</t>
-  </si>
-  <si>
-    <t xml:space="preserve">삼성물산 선배들에게 </t>
-  </si>
-  <si>
-    <t>4페이지 10번</t>
-  </si>
-  <si>
-    <t xml:space="preserve">바이킹스워프 </t>
-  </si>
-  <si>
-    <t>4페이지 17번</t>
-  </si>
-  <si>
-    <t xml:space="preserve">롯데 음료학교 </t>
-  </si>
-  <si>
-    <t>5페이지 14번</t>
-  </si>
-  <si>
-    <t>제품홍보</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vlog</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>페이지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">url </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>썸네일 여부</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/EwZhZZb1Cv4?si=9kC_djCrPMpFf0Wf" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
-  </si>
-  <si>
-    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/AjFtAfcBY3k?si=zeJfhyRNCwsW77GL" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
-  </si>
-  <si>
-    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/-v3Mf7pJgvU?si=YEsYrX8ru6d7LEr3" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/ShY99ElUHPU?si=gTkLJGmZxLDHEZ6s" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
-  </si>
-  <si>
-    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/ngzBYN_2cyg?si=SLAudajhYGdyLiH7" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
-  </si>
-  <si>
-    <t>영상없음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/i0SkeVt-Lt4?si=UCBkdzSTtTdb21TR" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
-  </si>
-  <si>
-    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/N0sCtAptYls?si=gAq5k50Pt-SG_v_C" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
-  </si>
-  <si>
-    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/Kh1-R63uiaI?si=9ZJmQy5bUMw8UMzr" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
-  </si>
-  <si>
-    <t>1페이지 14번</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/ZfujeU6QhVo?si=65-HIr0-dhFYp7nV" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/oM1mucxwy48?si=IKRZ4S_7vjCGK6vq" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/I26u_Oyk_Zk?si=0wdaLiaHtfRyLjNV" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
-  </si>
-  <si>
-    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/h9HPM8J2eug?si=K3cIZ2y5UNTnuZla" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
-  </si>
-  <si>
-    <t>1페이지 16번</t>
-  </si>
-  <si>
-    <t>Ebs 소름돋는 자화상해석</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ebs 뜻밖의 조별과제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2페이지 1번</t>
-  </si>
-  <si>
-    <t>1페이지 15번</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2페이지 12번</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2페이지 13번</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2페이지 14번</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2페이지 15번</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2페이지 16번</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2페이지 9번</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3페이지 8,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3페이지 9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3페이지 10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5페이지 7번</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5페이지 8번</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5페이지 9번</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㅇ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/ReDTE0WZ5Ig?si=Xj_Bm-7HSMJJ-vZE" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
-  </si>
-  <si>
-    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/EHVuvCX_AbE?si=-yZG5CbyT-leMAaX" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
-  </si>
-  <si>
-    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/b6c_jmT7olk?si=0jLZX_f7vojVoCvj" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/J9oKmTzjmIE?si=NdzByguNQ32-A0kT" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
-  </si>
-  <si>
-    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/1ICw32Gth64?si=63XW4Nwo6BMNCChM" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
-  </si>
-  <si>
-    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/c_8sbNOw89g?si=KlLS3bANygCZDd2Y" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
-  </si>
-  <si>
-    <t>1페이지 3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/5pJn2BVDWVs?si=iYTkBr4cFUzWaDUI" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
-  </si>
-  <si>
-    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/_hjqeHwezeU?si=FgH7aDRzFrVJhB0c" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
-  </si>
-  <si>
-    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/3r4PZaj09B8?si=pi2CSCbJueBkRTSy" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/LfLMngsTvL8?si=Tj2HbvFkklt9iCqS" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
-  </si>
-  <si>
-    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/RpAocaATS8g?si=IW8v-y7RFqCKLLB3" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
-  </si>
-  <si>
-    <t>3페이지 6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3페이지 7번</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/iDOcix6lZbY?si=H1z8JRbRc6CZzpKm" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
-  </si>
-  <si>
-    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/0J7fPqC3Nao?si=-39XJFRsAorOy22w" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
-  </si>
-  <si>
-    <t>삼성전기 어스아워</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">삼성전기 쌤클라스 2교시 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/eTq7MlJxVLg?si=sJbsrOpUWxxPRms-" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">삼성전기 쌤클라스 1교시 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/dxSyGyU8dRw?si=KrCyzU8Eud-EgKM1" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
-  </si>
-  <si>
-    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/lFwD3FylKFk?si=oUxpOBcwaP47InoR" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
-  </si>
-  <si>
-    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/folzM0NhvgA?si=T16ChRAnt2MSzWAC" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
-  </si>
-  <si>
-    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/7TfIqcD5RrQ?si=J03l3LqtNjYSa2OP" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
-  </si>
-  <si>
-    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/Ik-jbbKHtS4?si=GU2I_55VHiXa-HVy" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
-  </si>
-  <si>
-    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/GLMUpVZLAGs?si=HOkrSLxyP8WzWTGz" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
-  </si>
-  <si>
-    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/rR_AgyDBrEw?si=ZvUSB0OK0H88Ix30" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
-  </si>
-  <si>
-    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/N2nONjh0_Gs?si=kX-UbSIYUSmSkwJi" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
-  </si>
-  <si>
-    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/UbU0pAi6XXc?si=408lrORBhSbfrQHL" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/heN2Sf-zZT4?si=6-Zo53MF6X3P61T3" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
-  </si>
-  <si>
-    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/blzb94z4XgI?si=eX3j22aZwDvS0vgx" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
-  </si>
-  <si>
-    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/InzXerrbaeE?si=TSrEJpEJSOGk7Y_p" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
-  </si>
-  <si>
-    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/x44nQ3uvUPc?si=fXoQfvXp5PiorDRQ" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/tIZgu8WW_1I?si=jjcqCGJFagRuksJ8" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
-  </si>
-  <si>
-    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/5_M4z3QsEUs?si=XN6QFtUxLqjXl2Ni" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
-  </si>
-  <si>
-    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/-eyH38XuNDs?si=BV4DcfpRSNK_lnGr" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/AxUMQB7HyHk?si=kbB_jugtXO2YkWva" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
-  </si>
-  <si>
-    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/LWd_Vqv4KWw?si=3ckv4PuklnLSArpV" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
-  </si>
-  <si>
-    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/rNlR5N_f3XQ?si=s9nJbOTiAGWAoTy_" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
-  </si>
-  <si>
-    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/dKgdPCE8JwM?si=6-SBk2_BtCC038KA" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
-  </si>
-  <si>
-    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/ya7YILR3Ayw?si=TzPk7jKTr1YnG3Og" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
-  </si>
-  <si>
-    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/Cn85gCxl8kg?si=8Kc5Z84Y_CM2zszN" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
-  </si>
-  <si>
-    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/iUBfIOoBy78?si=_najNMpKo4mCA2Vg" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
-  </si>
-  <si>
-    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/XAImT8vXV8Q?si=W7WkhN8IY0YYL5a8" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
-  </si>
-  <si>
-    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/9ctaXq0ULrk?si=lubjNQR080G_byso" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
-  </si>
-  <si>
-    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/QULVOgNes5g?si=uQuaCqK2IkHDiRG2" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
-  </si>
-  <si>
-    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/CrG-Apvzq5A?si=97PHy5LtOJbW26Ks" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
-  </si>
-  <si>
-    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/JaUR8U81ZS8?si=JlFlgHT3tjvjeeYU" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
-  </si>
-  <si>
-    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/I6XF4z_NjK4?si=CrIoRsCiUpxKEOKl" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
-  </si>
-  <si>
-    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/mSDLYz3JDg0?si=iO_99MRJGofQ_5_1" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
-  </si>
-  <si>
-    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/wt4xZTy3Wlg?si=42hngxWsBdH215by" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
-  </si>
-  <si>
-    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/QCh6U39jtzw?si=v9_vCi_-_RxfIl34" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/xPWMy0uap70?si=-8o_dVLQDdKkM620" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">모플렉스 2 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>모플렉스 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5페이지 5번</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5페이지 4번</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/JMw2jHzzrfo?si=LhWK1zAZrupTSfi-" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
-  </si>
-  <si>
-    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/1M05cOu4ldY?si=IGm3B1Uado4svNDf" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
-  </si>
-  <si>
-    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/WWEUasAJlrs?si=LOugKJwLhHL9aIoH" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
-  </si>
-  <si>
-    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/PeR_b8KG848?si=yKhPPQEcY-0DgM83" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
-  </si>
-  <si>
-    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/JiHcZ6GajW0?si=CybMFTG6Cda85QfK" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
-  </si>
-  <si>
-    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/dWu-Jsk7fCU?si=bno-JANJTj_hrkl1" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
-  </si>
-  <si>
-    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/G2ToKhHdnOE?si=3lyG7MHW0TUQP3-P" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
-  </si>
-  <si>
-    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/87ubOdJtaQU?si=v2glFYuPgc-7g8D9" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/qJhaqYgyvQU?si=kp6oBre7LS3OfakZ" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
-  </si>
-  <si>
-    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/AJs7ma1fqFM?si=xM9sHTn9Xmfp84FO" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
-  </si>
-  <si>
-    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/J9oKmTzjmIE?si=G4acvZ99NvQMC9TT" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/nd2UHAyTW_Y?si=hfug6LivyjFDd7Ql" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
-  </si>
-  <si>
-    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/7KbtYJZgNZQ?si=aktvAuMZi0O9SdpC" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
-  </si>
-  <si>
-    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/WPGQeMCU-QY?si=mNqacgufzxbQLrOC" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
-  </si>
-  <si>
-    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/iPh6iQzmWsk?si=qpkTAzbhHcsB8oO7" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
-  </si>
-  <si>
-    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/9azzmOwDK9U?si=dyvTaYYi51BfV9uu" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
-  </si>
-  <si>
-    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/0drw7OG2CX4?si=DixK3asOXPseOMRL" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/dwjUs0a99DQ?si=ihVG2aHiuRpFqzMb" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/7thVQeXVKqw?si=Bv3D-_RlF3wlG_73" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1221,21 +1229,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5671937B-8760-4B55-AB64-B08BB2598A56}">
   <dimension ref="A1:E87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="130" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="3.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.375" customWidth="1"/>
-    <col min="3" max="3" width="12.125" customWidth="1"/>
-    <col min="4" max="4" width="107.875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.33203125" customWidth="1"/>
+    <col min="3" max="3" width="12.1640625" customWidth="1"/>
+    <col min="4" max="4" width="107.83203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1246,13 +1254,13 @@
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="E2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1260,16 +1268,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1277,13 +1285,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1291,13 +1299,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1305,13 +1313,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1319,13 +1327,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1333,13 +1341,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1347,13 +1355,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1361,13 +1369,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1375,13 +1383,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1389,13 +1397,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1403,25 +1411,25 @@
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3"/>
       <c r="B14" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1429,13 +1437,13 @@
         <v>13</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1443,13 +1451,13 @@
         <v>14</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1457,13 +1465,13 @@
         <v>15</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>179</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1471,13 +1479,13 @@
         <v>16</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1485,13 +1493,13 @@
         <v>17</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1499,13 +1507,13 @@
         <v>18</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1513,13 +1521,13 @@
         <v>19</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1527,13 +1535,13 @@
         <v>20</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1541,13 +1549,13 @@
         <v>21</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1555,13 +1563,13 @@
         <v>22</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1569,13 +1577,13 @@
         <v>23</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1583,13 +1591,13 @@
         <v>24</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1597,13 +1605,13 @@
         <v>25</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1611,13 +1619,13 @@
         <v>26</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1625,13 +1633,13 @@
         <v>27</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1639,13 +1647,13 @@
         <v>28</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1653,13 +1661,13 @@
         <v>29</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1667,13 +1675,13 @@
         <v>30</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1681,13 +1689,13 @@
         <v>31</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1695,13 +1703,13 @@
         <v>32</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1709,13 +1717,13 @@
         <v>33</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1723,13 +1731,13 @@
         <v>34</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1737,7 +1745,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C37" s="4"/>
     </row>
@@ -1746,13 +1754,13 @@
         <v>36</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>72</v>
+        <v>237</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1760,16 +1768,16 @@
         <v>37</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>74</v>
+        <v>238</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1777,16 +1785,16 @@
         <v>38</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1794,13 +1802,13 @@
         <v>39</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1808,13 +1816,13 @@
         <v>40</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1822,13 +1830,13 @@
         <v>41</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1836,13 +1844,13 @@
         <v>42</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1850,13 +1858,13 @@
         <v>43</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1864,13 +1872,13 @@
         <v>44</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1878,13 +1886,13 @@
         <v>45</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1892,13 +1900,13 @@
         <v>46</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1906,13 +1914,13 @@
         <v>47</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1920,13 +1928,13 @@
         <v>48</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1934,13 +1942,13 @@
         <v>49</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1948,13 +1956,13 @@
         <v>50</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1962,13 +1970,13 @@
         <v>51</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1976,13 +1984,13 @@
         <v>52</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1990,13 +1998,13 @@
         <v>53</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -2004,25 +2012,25 @@
         <v>54</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="4"/>
       <c r="B57" s="4" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -2030,13 +2038,13 @@
         <v>55</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -2051,13 +2059,13 @@
         <v>57</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -2065,7 +2073,7 @@
         <v>58</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C61" s="5"/>
     </row>
@@ -2077,13 +2085,13 @@
         <v>1</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -2094,13 +2102,13 @@
         <v>2</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="E63" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -2111,10 +2119,10 @@
         <v>3</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -2125,10 +2133,10 @@
         <v>4</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -2139,10 +2147,10 @@
         <v>5</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -2153,10 +2161,10 @@
         <v>6</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -2164,13 +2172,13 @@
         <v>65</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -2181,13 +2189,13 @@
         <v>7</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -2198,10 +2206,10 @@
         <v>8</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -2212,10 +2220,10 @@
         <v>9</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -2226,10 +2234,10 @@
         <v>10</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -2240,10 +2248,10 @@
         <v>11</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -2254,10 +2262,10 @@
         <v>12</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -2265,16 +2273,16 @@
         <v>72</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="E75" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -2282,13 +2290,13 @@
         <v>73</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -2299,10 +2307,10 @@
         <v>13</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -2310,13 +2318,13 @@
         <v>75</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>14</v>
+        <v>234</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -2324,13 +2332,13 @@
         <v>76</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -2338,13 +2346,13 @@
         <v>77</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>16</v>
+        <v>235</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -2352,13 +2360,13 @@
         <v>78</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>117</v>
+        <v>236</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -2380,13 +2388,13 @@
         <v>82</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -2401,13 +2409,13 @@
         <v>84</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -2415,13 +2423,13 @@
         <v>85</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
   </sheetData>

--- a/포카리사운드 영상_url.xlsx
+++ b/포카리사운드 영상_url.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hongeunlee/Desktop/development/a3_second_homepage/pocari_sound/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hongn\GitHub\pocari_sound\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB925137-60C6-AC43-BC0F-123EA4A64218}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B826D64-88EB-41A5-A934-4A0AA8AFA91C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25600" yWindow="500" windowWidth="25600" windowHeight="28300" xr2:uid="{74080E5A-2F44-4706-AD70-86B1AB8CCEEB}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{74080E5A-2F44-4706-AD70-86B1AB8CCEEB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="240">
   <si>
     <t>기업홍보</t>
   </si>
@@ -120,681 +120,691 @@
     <t>3페이지 1번</t>
   </si>
   <si>
+    <t>3페이지 5번</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Js컴퍼니 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sdi 아무거나 쓰지말어 </t>
+  </si>
+  <si>
+    <t>3페이지 12번</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lck </t>
+  </si>
+  <si>
+    <t>3페이지 14번</t>
+  </si>
+  <si>
+    <t xml:space="preserve">세라젬 </t>
+  </si>
+  <si>
+    <t>3페이지 16번</t>
+  </si>
+  <si>
+    <t xml:space="preserve">효성그룹 </t>
+  </si>
+  <si>
+    <t>4페이지 1번</t>
+  </si>
+  <si>
+    <t xml:space="preserve">네이버 부스트캠프 </t>
+  </si>
+  <si>
+    <t>4페이지 2번</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sdi 초대박 환상의패턴 </t>
+  </si>
+  <si>
+    <t>4페이지 5번</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sdi 배터리송 </t>
+  </si>
+  <si>
+    <t>4페이지 6번</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sdi 시인성에 문제있어 </t>
+  </si>
+  <si>
+    <t>4페이지 7번</t>
+  </si>
+  <si>
+    <t>4페이지 12번</t>
+  </si>
+  <si>
+    <t>4페이지 15번</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Koika </t>
+  </si>
+  <si>
+    <t>4피이지 16번</t>
+  </si>
+  <si>
+    <t>4페이지 18번</t>
+  </si>
+  <si>
+    <t xml:space="preserve">롯데 채용영상 </t>
+  </si>
+  <si>
+    <t>5페이지 2번</t>
+  </si>
+  <si>
+    <t xml:space="preserve">한독모터스 </t>
+  </si>
+  <si>
+    <t>5페이지 3번</t>
+  </si>
+  <si>
+    <t xml:space="preserve">건축도시공간연구소 </t>
+  </si>
+  <si>
+    <t>5페이지 6번</t>
+  </si>
+  <si>
+    <t xml:space="preserve">문화재청 서오릉 3편 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">경기콘텐츠진흥원 </t>
+  </si>
+  <si>
+    <t>5페이지 10번</t>
+  </si>
+  <si>
+    <t xml:space="preserve">식품의약품안전처 </t>
+  </si>
+  <si>
+    <t>5페이지 12번</t>
+  </si>
+  <si>
+    <t xml:space="preserve">소방청 </t>
+  </si>
+  <si>
+    <t>5페이지 17번</t>
+  </si>
+  <si>
+    <t>1페이지1번</t>
+  </si>
+  <si>
+    <t xml:space="preserve">당근비즈니스 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">메이플스토리m </t>
+  </si>
+  <si>
+    <t>2페이지 8번</t>
+  </si>
+  <si>
+    <t>부적오운</t>
+  </si>
+  <si>
+    <t xml:space="preserve">쌍용건설 위대한 작품을 만들다 </t>
+  </si>
+  <si>
+    <t>2페이지 11번</t>
+  </si>
+  <si>
+    <t xml:space="preserve">골맵 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">아자르 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">아산 한신더휴 </t>
+  </si>
+  <si>
+    <t>2페이지 17번</t>
+  </si>
+  <si>
+    <t xml:space="preserve">라그나로크 </t>
+  </si>
+  <si>
+    <t>3페이지 2번</t>
+  </si>
+  <si>
+    <t xml:space="preserve">카트라이더 </t>
+  </si>
+  <si>
+    <t>3페이지 11번</t>
+  </si>
+  <si>
+    <t xml:space="preserve">쌍용 플래티넘 오시리아 </t>
+  </si>
+  <si>
+    <t>3페이지 13번</t>
+  </si>
+  <si>
+    <t xml:space="preserve">킹스맨 </t>
+  </si>
+  <si>
+    <t>3페이지15번</t>
+  </si>
+  <si>
+    <t xml:space="preserve">진주 피에르테 </t>
+  </si>
+  <si>
+    <t>3페이지 17번</t>
+  </si>
+  <si>
+    <t xml:space="preserve">한국투자증권 tdf </t>
+  </si>
+  <si>
+    <t>3페이지 18번</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nc소프트 페이지 </t>
+  </si>
+  <si>
+    <t>4페이지 8번</t>
+  </si>
+  <si>
+    <t xml:space="preserve">클룸 </t>
+  </si>
+  <si>
+    <t>5페이지 18번</t>
+  </si>
+  <si>
+    <t>1페이지 4</t>
+  </si>
+  <si>
+    <t>1페이지5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1페이지6 </t>
+  </si>
+  <si>
+    <t>1페이지7</t>
+  </si>
+  <si>
+    <t>1페이지8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">월드비젼 효기 강력해진 미션대공개 </t>
+  </si>
+  <si>
+    <t>1페이지9</t>
+  </si>
+  <si>
+    <t>1페이지10</t>
+  </si>
+  <si>
+    <t>1페이지11</t>
+  </si>
+  <si>
+    <t>1페이지12</t>
+  </si>
+  <si>
+    <t>1페이지13</t>
+  </si>
+  <si>
+    <t>1페이지14</t>
+  </si>
+  <si>
+    <t>1페이지15</t>
+  </si>
+  <si>
+    <t>2페이지 4</t>
+  </si>
+  <si>
+    <t>2페이지 5</t>
+  </si>
+  <si>
+    <t>3페이지 3</t>
+  </si>
+  <si>
+    <t>3페이지 4</t>
+  </si>
+  <si>
+    <t>4페이지 3번</t>
+  </si>
+  <si>
+    <t xml:space="preserve">삼성물산 선배들에게 </t>
+  </si>
+  <si>
+    <t>4페이지 10번</t>
+  </si>
+  <si>
+    <t xml:space="preserve">바이킹스워프 </t>
+  </si>
+  <si>
+    <t>4페이지 17번</t>
+  </si>
+  <si>
+    <t xml:space="preserve">롯데 음료학교 </t>
+  </si>
+  <si>
+    <t>5페이지 14번</t>
+  </si>
+  <si>
+    <t>제품홍보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vlog</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">url </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>썸네일 여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/EwZhZZb1Cv4?si=9kC_djCrPMpFf0Wf" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/AjFtAfcBY3k?si=zeJfhyRNCwsW77GL" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/-v3Mf7pJgvU?si=YEsYrX8ru6d7LEr3" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/ShY99ElUHPU?si=gTkLJGmZxLDHEZ6s" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/ngzBYN_2cyg?si=SLAudajhYGdyLiH7" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>영상없음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/i0SkeVt-Lt4?si=UCBkdzSTtTdb21TR" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/N0sCtAptYls?si=gAq5k50Pt-SG_v_C" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/Kh1-R63uiaI?si=9ZJmQy5bUMw8UMzr" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>1페이지 14번</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/ZfujeU6QhVo?si=65-HIr0-dhFYp7nV" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/oM1mucxwy48?si=IKRZ4S_7vjCGK6vq" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/I26u_Oyk_Zk?si=0wdaLiaHtfRyLjNV" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/h9HPM8J2eug?si=K3cIZ2y5UNTnuZla" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>1페이지 16번</t>
+  </si>
+  <si>
+    <t>Ebs 소름돋는 자화상해석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ebs 뜻밖의 조별과제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2페이지 1번</t>
+  </si>
+  <si>
+    <t>1페이지 15번</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2페이지 12번</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2페이지 13번</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2페이지 14번</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2페이지 15번</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2페이지 16번</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2페이지 9번</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3페이지 8,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3페이지 9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3페이지 10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5페이지 7번</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5페이지 8번</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5페이지 9번</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅇ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/ReDTE0WZ5Ig?si=Xj_Bm-7HSMJJ-vZE" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/EHVuvCX_AbE?si=-yZG5CbyT-leMAaX" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/b6c_jmT7olk?si=0jLZX_f7vojVoCvj" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/J9oKmTzjmIE?si=NdzByguNQ32-A0kT" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/1ICw32Gth64?si=63XW4Nwo6BMNCChM" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/c_8sbNOw89g?si=KlLS3bANygCZDd2Y" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>1페이지 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/5pJn2BVDWVs?si=iYTkBr4cFUzWaDUI" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/3r4PZaj09B8?si=pi2CSCbJueBkRTSy" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/LfLMngsTvL8?si=Tj2HbvFkklt9iCqS" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/RpAocaATS8g?si=IW8v-y7RFqCKLLB3" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>3페이지 6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3페이지 7번</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/iDOcix6lZbY?si=H1z8JRbRc6CZzpKm" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/0J7fPqC3Nao?si=-39XJFRsAorOy22w" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>삼성전기 어스아워</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">삼성전기 쌤클라스 2교시 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/eTq7MlJxVLg?si=sJbsrOpUWxxPRms-" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">삼성전기 쌤클라스 1교시 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/dxSyGyU8dRw?si=KrCyzU8Eud-EgKM1" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/lFwD3FylKFk?si=oUxpOBcwaP47InoR" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/7TfIqcD5RrQ?si=J03l3LqtNjYSa2OP" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/Ik-jbbKHtS4?si=GU2I_55VHiXa-HVy" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/GLMUpVZLAGs?si=HOkrSLxyP8WzWTGz" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/rR_AgyDBrEw?si=ZvUSB0OK0H88Ix30" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/N2nONjh0_Gs?si=kX-UbSIYUSmSkwJi" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/UbU0pAi6XXc?si=408lrORBhSbfrQHL" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/heN2Sf-zZT4?si=6-Zo53MF6X3P61T3" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/blzb94z4XgI?si=eX3j22aZwDvS0vgx" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/InzXerrbaeE?si=TSrEJpEJSOGk7Y_p" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/x44nQ3uvUPc?si=fXoQfvXp5PiorDRQ" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/tIZgu8WW_1I?si=jjcqCGJFagRuksJ8" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/5_M4z3QsEUs?si=XN6QFtUxLqjXl2Ni" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/-eyH38XuNDs?si=BV4DcfpRSNK_lnGr" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/AxUMQB7HyHk?si=kbB_jugtXO2YkWva" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/LWd_Vqv4KWw?si=3ckv4PuklnLSArpV" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/rNlR5N_f3XQ?si=s9nJbOTiAGWAoTy_" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/dKgdPCE8JwM?si=6-SBk2_BtCC038KA" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/ya7YILR3Ayw?si=TzPk7jKTr1YnG3Og" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/Cn85gCxl8kg?si=8Kc5Z84Y_CM2zszN" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/iUBfIOoBy78?si=_najNMpKo4mCA2Vg" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/XAImT8vXV8Q?si=W7WkhN8IY0YYL5a8" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/9ctaXq0ULrk?si=lubjNQR080G_byso" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/QULVOgNes5g?si=uQuaCqK2IkHDiRG2" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/CrG-Apvzq5A?si=97PHy5LtOJbW26Ks" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/JaUR8U81ZS8?si=JlFlgHT3tjvjeeYU" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/I6XF4z_NjK4?si=CrIoRsCiUpxKEOKl" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/mSDLYz3JDg0?si=iO_99MRJGofQ_5_1" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/wt4xZTy3Wlg?si=42hngxWsBdH215by" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/QCh6U39jtzw?si=v9_vCi_-_RxfIl34" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/xPWMy0uap70?si=-8o_dVLQDdKkM620" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">모플렉스 2 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모플렉스 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5페이지 5번</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5페이지 4번</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/JMw2jHzzrfo?si=LhWK1zAZrupTSfi-" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/1M05cOu4ldY?si=IGm3B1Uado4svNDf" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/WWEUasAJlrs?si=LOugKJwLhHL9aIoH" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/PeR_b8KG848?si=yKhPPQEcY-0DgM83" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/JiHcZ6GajW0?si=CybMFTG6Cda85QfK" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/dWu-Jsk7fCU?si=bno-JANJTj_hrkl1" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/G2ToKhHdnOE?si=3lyG7MHW0TUQP3-P" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/87ubOdJtaQU?si=v2glFYuPgc-7g8D9" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/qJhaqYgyvQU?si=kp6oBre7LS3OfakZ" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/AJs7ma1fqFM?si=xM9sHTn9Xmfp84FO" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/nd2UHAyTW_Y?si=hfug6LivyjFDd7Ql" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/7KbtYJZgNZQ?si=aktvAuMZi0O9SdpC" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/WPGQeMCU-QY?si=mNqacgufzxbQLrOC" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/iPh6iQzmWsk?si=qpkTAzbhHcsB8oO7" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/0drw7OG2CX4?si=DixK3asOXPseOMRL" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/dwjUs0a99DQ?si=ihVG2aHiuRpFqzMb" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/7thVQeXVKqw?si=Bv3D-_RlF3wlG_73" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/x1j0lUwCocc?si=ntGTYCO6ySaslK1j" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/9azzmOwDK9U?si=dyvTaYYi51BfV9uu" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삼성전기 kpca 2022</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sdi 범인은 이안에있어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Sdi 동년배톡 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">과몰입금지 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">당근비즈니스 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/_hjqeHwezeU?si=FgH7aDRzFrVJhB0c" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t xml:space="preserve">여가부 연말결산 </t>
-  </si>
-  <si>
-    <t>3페이지 5번</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">Js컴퍼니 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sdi 아무거나 쓰지말어 </t>
-  </si>
-  <si>
-    <t>3페이지 12번</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lck </t>
-  </si>
-  <si>
-    <t>3페이지 14번</t>
-  </si>
-  <si>
-    <t xml:space="preserve">세라젬 </t>
-  </si>
-  <si>
-    <t>3페이지 16번</t>
-  </si>
-  <si>
-    <t xml:space="preserve">효성그룹 </t>
-  </si>
-  <si>
-    <t>4페이지 1번</t>
-  </si>
-  <si>
-    <t xml:space="preserve">네이버 부스트캠프 </t>
-  </si>
-  <si>
-    <t>4페이지 2번</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sdi 초대박 환상의패턴 </t>
-  </si>
-  <si>
-    <t>4페이지 5번</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sdi 배터리송 </t>
-  </si>
-  <si>
-    <t>4페이지 6번</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sdi 시인성에 문제있어 </t>
-  </si>
-  <si>
-    <t>4페이지 7번</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">Lg생활건강 알파트장 </t>
-  </si>
-  <si>
-    <t>4페이지 12번</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">검찰청 </t>
-  </si>
-  <si>
-    <t>4페이지 15번</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Koika </t>
-  </si>
-  <si>
-    <t>4피이지 16번</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">카카오페이 </t>
-  </si>
-  <si>
-    <t>4페이지 18번</t>
-  </si>
-  <si>
-    <t xml:space="preserve">롯데 채용영상 </t>
-  </si>
-  <si>
-    <t>5페이지 2번</t>
-  </si>
-  <si>
-    <t xml:space="preserve">한독모터스 </t>
-  </si>
-  <si>
-    <t>5페이지 3번</t>
-  </si>
-  <si>
-    <t xml:space="preserve">건축도시공간연구소 </t>
-  </si>
-  <si>
-    <t>5페이지 6번</t>
-  </si>
-  <si>
-    <t xml:space="preserve">문화재청 서오릉 3편 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">경기콘텐츠진흥원 </t>
-  </si>
-  <si>
-    <t>5페이지 10번</t>
-  </si>
-  <si>
-    <t xml:space="preserve">식품의약품안전처 </t>
-  </si>
-  <si>
-    <t>5페이지 12번</t>
-  </si>
-  <si>
-    <t xml:space="preserve">소방청 </t>
-  </si>
-  <si>
-    <t>5페이지 17번</t>
-  </si>
-  <si>
-    <t>1페이지1번</t>
-  </si>
-  <si>
-    <t xml:space="preserve">당근비즈니스 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">메이플스토리m </t>
-  </si>
-  <si>
-    <t>2페이지 8번</t>
-  </si>
-  <si>
-    <t>부적오운</t>
-  </si>
-  <si>
-    <t xml:space="preserve">쌍용건설 위대한 작품을 만들다 </t>
-  </si>
-  <si>
-    <t>2페이지 11번</t>
-  </si>
-  <si>
-    <t xml:space="preserve">골맵 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">아자르 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">아산 한신더휴 </t>
-  </si>
-  <si>
-    <t>2페이지 17번</t>
-  </si>
-  <si>
-    <t xml:space="preserve">라그나로크 </t>
-  </si>
-  <si>
-    <t>3페이지 2번</t>
-  </si>
-  <si>
-    <t xml:space="preserve">카트라이더 </t>
-  </si>
-  <si>
-    <t>3페이지 11번</t>
-  </si>
-  <si>
-    <t xml:space="preserve">쌍용 플래티넘 오시리아 </t>
-  </si>
-  <si>
-    <t>3페이지 13번</t>
-  </si>
-  <si>
-    <t xml:space="preserve">킹스맨 </t>
-  </si>
-  <si>
-    <t>3페이지15번</t>
-  </si>
-  <si>
-    <t xml:space="preserve">진주 피에르테 </t>
-  </si>
-  <si>
-    <t>3페이지 17번</t>
-  </si>
-  <si>
-    <t xml:space="preserve">한국투자증권 tdf </t>
-  </si>
-  <si>
-    <t>3페이지 18번</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nc소프트 페이지 </t>
-  </si>
-  <si>
-    <t>4페이지 8번</t>
-  </si>
-  <si>
-    <t xml:space="preserve">클룸 </t>
-  </si>
-  <si>
-    <t>5페이지 18번</t>
-  </si>
-  <si>
-    <t>1페이지 4</t>
-  </si>
-  <si>
-    <t>1페이지5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1페이지6 </t>
-  </si>
-  <si>
-    <t>1페이지7</t>
-  </si>
-  <si>
-    <t>1페이지8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">월드비젼 효기 강력해진 미션대공개 </t>
-  </si>
-  <si>
-    <t>1페이지9</t>
-  </si>
-  <si>
-    <t>1페이지10</t>
-  </si>
-  <si>
-    <t>1페이지11</t>
-  </si>
-  <si>
-    <t>1페이지12</t>
-  </si>
-  <si>
-    <t>1페이지13</t>
-  </si>
-  <si>
-    <t>1페이지14</t>
-  </si>
-  <si>
-    <t>1페이지15</t>
-  </si>
-  <si>
-    <t>2페이지 4</t>
-  </si>
-  <si>
-    <t>2페이지 5</t>
-  </si>
-  <si>
-    <t>3페이지 3</t>
-  </si>
-  <si>
-    <t>3페이지 4</t>
-  </si>
-  <si>
-    <t>4페이지 3번</t>
-  </si>
-  <si>
-    <t xml:space="preserve">삼성물산 선배들에게 </t>
-  </si>
-  <si>
-    <t>4페이지 10번</t>
-  </si>
-  <si>
-    <t xml:space="preserve">바이킹스워프 </t>
-  </si>
-  <si>
-    <t>4페이지 17번</t>
-  </si>
-  <si>
-    <t xml:space="preserve">롯데 음료학교 </t>
-  </si>
-  <si>
-    <t>5페이지 14번</t>
-  </si>
-  <si>
-    <t>제품홍보</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vlog</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>페이지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">url </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>썸네일 여부</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/EwZhZZb1Cv4?si=9kC_djCrPMpFf0Wf" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
-  </si>
-  <si>
-    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/AjFtAfcBY3k?si=zeJfhyRNCwsW77GL" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
-  </si>
-  <si>
-    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/-v3Mf7pJgvU?si=YEsYrX8ru6d7LEr3" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/ShY99ElUHPU?si=gTkLJGmZxLDHEZ6s" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
-  </si>
-  <si>
-    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/ngzBYN_2cyg?si=SLAudajhYGdyLiH7" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
-  </si>
-  <si>
-    <t>영상없음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/i0SkeVt-Lt4?si=UCBkdzSTtTdb21TR" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
-  </si>
-  <si>
-    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/N0sCtAptYls?si=gAq5k50Pt-SG_v_C" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
-  </si>
-  <si>
-    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/Kh1-R63uiaI?si=9ZJmQy5bUMw8UMzr" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
-  </si>
-  <si>
-    <t>1페이지 14번</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/ZfujeU6QhVo?si=65-HIr0-dhFYp7nV" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/oM1mucxwy48?si=IKRZ4S_7vjCGK6vq" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/I26u_Oyk_Zk?si=0wdaLiaHtfRyLjNV" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
-  </si>
-  <si>
-    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/h9HPM8J2eug?si=K3cIZ2y5UNTnuZla" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
-  </si>
-  <si>
-    <t>1페이지 16번</t>
-  </si>
-  <si>
-    <t>Ebs 소름돋는 자화상해석</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ebs 뜻밖의 조별과제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2페이지 1번</t>
-  </si>
-  <si>
-    <t>1페이지 15번</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2페이지 12번</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2페이지 13번</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2페이지 14번</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2페이지 15번</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2페이지 16번</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2페이지 9번</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3페이지 8,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3페이지 9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3페이지 10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5페이지 7번</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5페이지 8번</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5페이지 9번</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㅇ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/ReDTE0WZ5Ig?si=Xj_Bm-7HSMJJ-vZE" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
-  </si>
-  <si>
-    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/EHVuvCX_AbE?si=-yZG5CbyT-leMAaX" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
-  </si>
-  <si>
-    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/b6c_jmT7olk?si=0jLZX_f7vojVoCvj" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/J9oKmTzjmIE?si=NdzByguNQ32-A0kT" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
-  </si>
-  <si>
-    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/1ICw32Gth64?si=63XW4Nwo6BMNCChM" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
-  </si>
-  <si>
-    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/c_8sbNOw89g?si=KlLS3bANygCZDd2Y" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
-  </si>
-  <si>
-    <t>1페이지 3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/5pJn2BVDWVs?si=iYTkBr4cFUzWaDUI" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
-  </si>
-  <si>
-    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/_hjqeHwezeU?si=FgH7aDRzFrVJhB0c" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
-  </si>
-  <si>
-    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/3r4PZaj09B8?si=pi2CSCbJueBkRTSy" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/LfLMngsTvL8?si=Tj2HbvFkklt9iCqS" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
-  </si>
-  <si>
-    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/RpAocaATS8g?si=IW8v-y7RFqCKLLB3" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
-  </si>
-  <si>
-    <t>3페이지 6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3페이지 7번</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/iDOcix6lZbY?si=H1z8JRbRc6CZzpKm" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
-  </si>
-  <si>
-    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/0J7fPqC3Nao?si=-39XJFRsAorOy22w" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
-  </si>
-  <si>
-    <t>삼성전기 어스아워</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">삼성전기 쌤클라스 2교시 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/eTq7MlJxVLg?si=sJbsrOpUWxxPRms-" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">삼성전기 쌤클라스 1교시 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/dxSyGyU8dRw?si=KrCyzU8Eud-EgKM1" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
-  </si>
-  <si>
-    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/lFwD3FylKFk?si=oUxpOBcwaP47InoR" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/folzM0NhvgA?si=T16ChRAnt2MSzWAC" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
-  </si>
-  <si>
-    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/7TfIqcD5RrQ?si=J03l3LqtNjYSa2OP" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
-  </si>
-  <si>
-    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/Ik-jbbKHtS4?si=GU2I_55VHiXa-HVy" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
-  </si>
-  <si>
-    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/GLMUpVZLAGs?si=HOkrSLxyP8WzWTGz" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
-  </si>
-  <si>
-    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/rR_AgyDBrEw?si=ZvUSB0OK0H88Ix30" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
-  </si>
-  <si>
-    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/N2nONjh0_Gs?si=kX-UbSIYUSmSkwJi" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
-  </si>
-  <si>
-    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/UbU0pAi6XXc?si=408lrORBhSbfrQHL" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/heN2Sf-zZT4?si=6-Zo53MF6X3P61T3" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
-  </si>
-  <si>
-    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/blzb94z4XgI?si=eX3j22aZwDvS0vgx" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
-  </si>
-  <si>
-    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/InzXerrbaeE?si=TSrEJpEJSOGk7Y_p" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
-  </si>
-  <si>
-    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/x44nQ3uvUPc?si=fXoQfvXp5PiorDRQ" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/tIZgu8WW_1I?si=jjcqCGJFagRuksJ8" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
-  </si>
-  <si>
-    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/5_M4z3QsEUs?si=XN6QFtUxLqjXl2Ni" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
-  </si>
-  <si>
-    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/-eyH38XuNDs?si=BV4DcfpRSNK_lnGr" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/AxUMQB7HyHk?si=kbB_jugtXO2YkWva" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
-  </si>
-  <si>
-    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/LWd_Vqv4KWw?si=3ckv4PuklnLSArpV" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
-  </si>
-  <si>
-    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/rNlR5N_f3XQ?si=s9nJbOTiAGWAoTy_" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
-  </si>
-  <si>
-    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/dKgdPCE8JwM?si=6-SBk2_BtCC038KA" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
-  </si>
-  <si>
-    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/ya7YILR3Ayw?si=TzPk7jKTr1YnG3Og" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
-  </si>
-  <si>
-    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/Cn85gCxl8kg?si=8Kc5Z84Y_CM2zszN" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
-  </si>
-  <si>
-    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/iUBfIOoBy78?si=_najNMpKo4mCA2Vg" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
-  </si>
-  <si>
-    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/XAImT8vXV8Q?si=W7WkhN8IY0YYL5a8" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
-  </si>
-  <si>
-    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/9ctaXq0ULrk?si=lubjNQR080G_byso" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
-  </si>
-  <si>
-    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/QULVOgNes5g?si=uQuaCqK2IkHDiRG2" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
-  </si>
-  <si>
-    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/CrG-Apvzq5A?si=97PHy5LtOJbW26Ks" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
-  </si>
-  <si>
-    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/JaUR8U81ZS8?si=JlFlgHT3tjvjeeYU" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
-  </si>
-  <si>
-    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/I6XF4z_NjK4?si=CrIoRsCiUpxKEOKl" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
-  </si>
-  <si>
-    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/mSDLYz3JDg0?si=iO_99MRJGofQ_5_1" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
-  </si>
-  <si>
-    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/wt4xZTy3Wlg?si=42hngxWsBdH215by" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
-  </si>
-  <si>
-    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/QCh6U39jtzw?si=v9_vCi_-_RxfIl34" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/xPWMy0uap70?si=-8o_dVLQDdKkM620" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">모플렉스 2 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>모플렉스 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5페이지 5번</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5페이지 4번</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/JMw2jHzzrfo?si=LhWK1zAZrupTSfi-" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
-  </si>
-  <si>
-    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/1M05cOu4ldY?si=IGm3B1Uado4svNDf" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
-  </si>
-  <si>
-    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/WWEUasAJlrs?si=LOugKJwLhHL9aIoH" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
-  </si>
-  <si>
-    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/PeR_b8KG848?si=yKhPPQEcY-0DgM83" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
-  </si>
-  <si>
-    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/JiHcZ6GajW0?si=CybMFTG6Cda85QfK" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
-  </si>
-  <si>
-    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/dWu-Jsk7fCU?si=bno-JANJTj_hrkl1" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
-  </si>
-  <si>
-    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/G2ToKhHdnOE?si=3lyG7MHW0TUQP3-P" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
-  </si>
-  <si>
-    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/87ubOdJtaQU?si=v2glFYuPgc-7g8D9" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/qJhaqYgyvQU?si=kp6oBre7LS3OfakZ" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
-  </si>
-  <si>
-    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/AJs7ma1fqFM?si=xM9sHTn9Xmfp84FO" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
-  </si>
-  <si>
-    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/nd2UHAyTW_Y?si=hfug6LivyjFDd7Ql" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
-  </si>
-  <si>
-    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/7KbtYJZgNZQ?si=aktvAuMZi0O9SdpC" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
-  </si>
-  <si>
-    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/WPGQeMCU-QY?si=mNqacgufzxbQLrOC" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
-  </si>
-  <si>
-    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/iPh6iQzmWsk?si=qpkTAzbhHcsB8oO7" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
-  </si>
-  <si>
-    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/0drw7OG2CX4?si=DixK3asOXPseOMRL" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/dwjUs0a99DQ?si=ihVG2aHiuRpFqzMb" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/7thVQeXVKqw?si=Bv3D-_RlF3wlG_73" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
-  </si>
-  <si>
-    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/x1j0lUwCocc?si=ntGTYCO6ySaslK1j" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
-  </si>
-  <si>
-    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/9azzmOwDK9U?si=dyvTaYYi51BfV9uu" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>삼성전기 kpca 2022</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sdi 범인은 이안에있어</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Sdi 동년배톡 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">과몰입금지 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">당근비즈니스 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -802,7 +812,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1229,24 +1239,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5671937B-8760-4B55-AB64-B08BB2598A56}">
   <dimension ref="A1:E87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="130" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="130" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.33203125" customWidth="1"/>
-    <col min="3" max="3" width="12.1640625" customWidth="1"/>
-    <col min="4" max="4" width="107.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.375" customWidth="1"/>
+    <col min="3" max="3" width="12.125" customWidth="1"/>
+    <col min="4" max="4" width="107.875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1254,16 +1264,16 @@
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -1274,13 +1284,13 @@
         <v>17</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -1291,10 +1301,10 @@
         <v>19</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -1305,10 +1315,10 @@
         <v>21</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -1319,10 +1329,10 @@
         <v>23</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -1333,10 +1343,10 @@
         <v>25</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -1347,52 +1357,52 @@
         <v>27</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>34</v>
-      </c>
       <c r="D9" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>36</v>
-      </c>
       <c r="D10" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>38</v>
-      </c>
       <c r="D11" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -1403,681 +1413,681 @@
         <v>29</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>31</v>
-      </c>
       <c r="D13" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="3"/>
       <c r="B14" s="3" t="s">
-        <v>32</v>
+        <v>235</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>13</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>14</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>15</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>16</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>17</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>49</v>
+        <v>236</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>18</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>51</v>
+        <v>237</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>19</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>55</v>
+        <v>238</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>20</v>
       </c>
       <c r="B22" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C22" s="3" t="s">
-        <v>40</v>
-      </c>
       <c r="D22" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>21</v>
       </c>
       <c r="B23" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>42</v>
-      </c>
       <c r="D23" s="1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>22</v>
       </c>
       <c r="B24" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="3" t="s">
-        <v>44</v>
-      </c>
       <c r="D24" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>23</v>
       </c>
       <c r="B25" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C25" s="3" t="s">
-        <v>46</v>
-      </c>
       <c r="D25" s="1" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>24</v>
       </c>
       <c r="B26" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C26" s="3" t="s">
-        <v>48</v>
-      </c>
       <c r="D26" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>25</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>26</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>27</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>28</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <v>29</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
         <v>30</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
         <v>31</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <v>32</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
         <v>33</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
         <v>34</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <v>35</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C37" s="4"/>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
         <v>36</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
         <v>37</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
         <v>38</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
         <v>39</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
         <v>40</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="4">
         <v>41</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
         <v>42</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
         <v>43</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
         <v>44</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="4">
         <v>45</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="4">
         <v>46</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="4">
         <v>47</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="4">
         <v>48</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="4">
         <v>49</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="4">
         <v>50</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="4">
         <v>51</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="4">
         <v>52</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="4">
         <v>53</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="4">
         <v>54</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="4"/>
       <c r="B57" s="4" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="4">
         <v>55</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="4">
         <v>56</v>
       </c>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="4">
         <v>57</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="5">
         <v>58</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C61" s="5"/>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="5">
         <v>59</v>
       </c>
@@ -2085,16 +2095,16 @@
         <v>1</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="5">
         <v>60</v>
       </c>
@@ -2102,16 +2112,16 @@
         <v>2</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="E63" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="5">
         <v>61</v>
       </c>
@@ -2119,13 +2129,13 @@
         <v>3</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="5">
         <v>62</v>
       </c>
@@ -2133,13 +2143,13 @@
         <v>4</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="5">
         <v>63</v>
       </c>
@@ -2147,13 +2157,13 @@
         <v>5</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="5">
         <v>64</v>
       </c>
@@ -2161,27 +2171,27 @@
         <v>6</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="5">
         <v>65</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="5">
         <v>66</v>
       </c>
@@ -2189,16 +2199,16 @@
         <v>7</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="5">
         <v>67</v>
       </c>
@@ -2206,13 +2216,13 @@
         <v>8</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="5">
         <v>68</v>
       </c>
@@ -2220,13 +2230,13 @@
         <v>9</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="5">
         <v>69</v>
       </c>
@@ -2234,13 +2244,13 @@
         <v>10</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="5">
         <v>70</v>
       </c>
@@ -2248,13 +2258,13 @@
         <v>11</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="5">
         <v>71</v>
       </c>
@@ -2262,44 +2272,44 @@
         <v>12</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="5">
         <v>72</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="E75" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="5">
         <v>73</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="5">
         <v>74</v>
       </c>
@@ -2307,27 +2317,27 @@
         <v>13</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="5">
         <v>75</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="5">
         <v>76</v>
       </c>
@@ -2335,101 +2345,101 @@
         <v>14</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" s="5">
         <v>77</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" s="5">
         <v>78</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" s="5">
         <v>80</v>
       </c>
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" s="5">
         <v>81</v>
       </c>
       <c r="B83" s="5"/>
       <c r="C83" s="5"/>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" s="5">
         <v>82</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" s="5">
         <v>83</v>
       </c>
       <c r="B85" s="5"/>
       <c r="C85" s="5"/>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" s="5">
         <v>84</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" s="5">
         <v>85</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
     </row>
   </sheetData>
